--- a/rtcp/J530+RTCP+OS_BRH2_fail.pcap_RTCP jitter 분석.xlsx
+++ b/rtcp/J530+RTCP+OS_BRH2_fail.pcap_RTCP jitter 분석.xlsx
@@ -161,7 +161,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>100253</xdr:colOff>
+      <xdr:colOff>43092</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>24075</xdr:rowOff>
     </xdr:to>
@@ -181,7 +181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192000" y="190500"/>
-          <a:ext cx="6196253" cy="6310575"/>
+          <a:ext cx="6139092" cy="6310575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -204,7 +204,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>100253</xdr:colOff>
+      <xdr:colOff>214575</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>24075</xdr:rowOff>
     </xdr:to>
@@ -224,7 +224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192000" y="190500"/>
-          <a:ext cx="6196253" cy="6310575"/>
+          <a:ext cx="6310575" cy="6310575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1973,7 +1973,7 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="K33">
-        <v>-7.202148437501776e-05</v>
+        <v>-7.202148437501776E-05</v>
       </c>
       <c r="L33">
         <v>43.69501623708673</v>
@@ -2839,7 +2839,7 @@
         <v>51248</v>
       </c>
       <c r="I52">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J52">
         <v>0.02000000000000002</v>
@@ -2883,7 +2883,7 @@
         <v>51568</v>
       </c>
       <c r="I53">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J53">
         <v>0.02000000000000002</v>
@@ -2927,7 +2927,7 @@
         <v>51888</v>
       </c>
       <c r="I54">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J54">
         <v>0.02000000000000002</v>
@@ -3015,7 +3015,7 @@
         <v>52528</v>
       </c>
       <c r="I56">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J56">
         <v>0.02000000000000002</v>
@@ -3323,7 +3323,7 @@
         <v>54768</v>
       </c>
       <c r="I63">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J63">
         <v>0.02000000000000002</v>
@@ -3367,7 +3367,7 @@
         <v>55088</v>
       </c>
       <c r="I64">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J64">
         <v>0.02000000000000002</v>
@@ -3587,7 +3587,7 @@
         <v>56688</v>
       </c>
       <c r="I69">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J69">
         <v>0.02000000000000002</v>
@@ -3675,7 +3675,7 @@
         <v>60208</v>
       </c>
       <c r="I71">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J71">
         <v>0.1599999999999997</v>
@@ -3763,7 +3763,7 @@
         <v>65328</v>
       </c>
       <c r="I73">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J73">
         <v>0.1600000000000001</v>
@@ -3895,7 +3895,7 @@
         <v>67568</v>
       </c>
       <c r="I76">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J76">
         <v>0.01999999999999957</v>
@@ -4115,7 +4115,7 @@
         <v>69168</v>
       </c>
       <c r="I81">
-        <v>6.079673767089844e-05</v>
+        <v>6.079673767089844E-05</v>
       </c>
       <c r="J81">
         <v>0.02000000000000046</v>
@@ -4203,7 +4203,7 @@
         <v>72688</v>
       </c>
       <c r="I83">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J83">
         <v>0.1600000000000001</v>
@@ -4423,7 +4423,7 @@
         <v>76528</v>
       </c>
       <c r="I88">
-        <v>9.202957153320312e-05</v>
+        <v>9.202957153320312E-05</v>
       </c>
       <c r="J88">
         <v>0.02000000000000046</v>
@@ -4467,7 +4467,7 @@
         <v>76848</v>
       </c>
       <c r="I89">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J89">
         <v>0.01999999999999957</v>
@@ -4511,7 +4511,7 @@
         <v>77168</v>
       </c>
       <c r="I90">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J90">
         <v>0.02000000000000046</v>
@@ -4555,7 +4555,7 @@
         <v>77488</v>
       </c>
       <c r="I91">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J91">
         <v>0.01999999999999957</v>
@@ -4863,7 +4863,7 @@
         <v>79728</v>
       </c>
       <c r="I98">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J98">
         <v>0.01999999999999957</v>
@@ -4907,7 +4907,7 @@
         <v>80048</v>
       </c>
       <c r="I99">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J99">
         <v>0.02000000000000046</v>
@@ -5039,7 +5039,7 @@
         <v>81008</v>
       </c>
       <c r="I102">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J102">
         <v>0.01999999999999957</v>
@@ -5303,7 +5303,7 @@
         <v>82928</v>
       </c>
       <c r="I108">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J108">
         <v>0.01999999999999957</v>
@@ -5655,7 +5655,7 @@
         <v>85488</v>
       </c>
       <c r="I116">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J116">
         <v>0.01999999999999957</v>
@@ -5787,7 +5787,7 @@
         <v>86448</v>
       </c>
       <c r="I119">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J119">
         <v>0.01999999999999957</v>
@@ -6315,7 +6315,7 @@
         <v>90288</v>
       </c>
       <c r="I131">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J131">
         <v>0.01999999999999957</v>
@@ -6359,7 +6359,7 @@
         <v>90608</v>
       </c>
       <c r="I132">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J132">
         <v>0.02000000000000046</v>
@@ -6403,7 +6403,7 @@
         <v>90928</v>
       </c>
       <c r="I133">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J133">
         <v>0.01999999999999957</v>
@@ -7195,7 +7195,7 @@
         <v>96688</v>
       </c>
       <c r="I151">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J151">
         <v>0.02000000000000046</v>
@@ -7283,7 +7283,7 @@
         <v>97328</v>
       </c>
       <c r="I153">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J153">
         <v>0.02000000000000046</v>
@@ -7371,7 +7371,7 @@
         <v>97968</v>
       </c>
       <c r="I155">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J155">
         <v>0.02000000000000046</v>
@@ -7459,7 +7459,7 @@
         <v>98608</v>
       </c>
       <c r="I157">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J157">
         <v>0.02000000000000046</v>
@@ -7591,7 +7591,7 @@
         <v>99568</v>
       </c>
       <c r="I160">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J160">
         <v>0.01999999999999957</v>
@@ -7723,7 +7723,7 @@
         <v>100528</v>
       </c>
       <c r="I163">
-        <v>9.202957153320312e-05</v>
+        <v>9.202957153320312E-05</v>
       </c>
       <c r="J163">
         <v>0.02000000000000046</v>
@@ -7811,7 +7811,7 @@
         <v>101808</v>
       </c>
       <c r="I165">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J165">
         <v>0.0600000000000005</v>
@@ -7855,7 +7855,7 @@
         <v>104368</v>
       </c>
       <c r="I166">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J166">
         <v>0.1599999999999993</v>
@@ -7943,7 +7943,7 @@
         <v>109488</v>
       </c>
       <c r="I168">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J168">
         <v>0.1600000000000001</v>
@@ -8031,7 +8031,7 @@
         <v>114608</v>
       </c>
       <c r="I170">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J170">
         <v>0.1600000000000001</v>
@@ -8119,7 +8119,7 @@
         <v>119728</v>
       </c>
       <c r="I172">
-        <v>6.079673767089844e-05</v>
+        <v>6.079673767089844E-05</v>
       </c>
       <c r="J172">
         <v>0.1599999999999993</v>
@@ -8163,7 +8163,7 @@
         <v>122288</v>
       </c>
       <c r="I173">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J173">
         <v>0.1600000000000001</v>
@@ -8207,7 +8207,7 @@
         <v>124848</v>
       </c>
       <c r="I174">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J174">
         <v>0.1600000000000001</v>
@@ -8707,7 +8707,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K184">
-        <v>-2.685546875014211e-05</v>
+        <v>-2.685546875014211E-05</v>
       </c>
       <c r="L184">
         <v>56.13928458924396</v>
@@ -9433,7 +9433,7 @@
         <v>372528</v>
       </c>
       <c r="I199">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J199">
         <v>0.01999999999999957</v>
@@ -9659,7 +9659,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K204">
-        <v>3.394126892075633e-05</v>
+        <v>3.394126892075633E-05</v>
       </c>
       <c r="L204">
         <v>355.914341616619</v>
@@ -10435,7 +10435,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K220">
-        <v>4.138946529508303e-06</v>
+        <v>4.138946529508303E-06</v>
       </c>
       <c r="L220">
         <v>160.2791575850586</v>
@@ -10523,7 +10523,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K222">
-        <v>6.398200988400049e-05</v>
+        <v>6.398200988400049E-05</v>
       </c>
       <c r="L222">
         <v>141.6626791558405</v>
@@ -11447,7 +11447,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K243">
-        <v>-2.709388732569096e-05</v>
+        <v>-2.709388732569096E-05</v>
       </c>
       <c r="L243">
         <v>42.54208246144913</v>
@@ -12715,7 +12715,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K271">
-        <v>3.513336181271143e-05</v>
+        <v>3.513336181271143E-05</v>
       </c>
       <c r="L271">
         <v>11.74835131497045</v>
@@ -13455,7 +13455,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K287">
-        <v>3.489494324071529e-05</v>
+        <v>3.489494324071529E-05</v>
       </c>
       <c r="L287">
         <v>15.72658386132086</v>
@@ -13543,7 +13543,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K289">
-        <v>-5.904197692530033e-05</v>
+        <v>-5.904197692530033E-05</v>
       </c>
       <c r="L289">
         <v>13.8364251694377</v>
@@ -13889,7 +13889,7 @@
         <v>699568</v>
       </c>
       <c r="I297">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J297">
         <v>0.01999999999999602</v>
@@ -14573,7 +14573,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K312">
-        <v>3.90052795040674e-06</v>
+        <v>3.90052795040674E-06</v>
       </c>
       <c r="L312">
         <v>10.21468633924929</v>
@@ -14661,7 +14661,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K314">
-        <v>9.497642516720362e-05</v>
+        <v>9.497642516720362E-05</v>
       </c>
       <c r="L314">
         <v>8.99241381192369</v>
@@ -15207,7 +15207,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K326">
-        <v>9.497642516720362e-05</v>
+        <v>9.497642516720362E-05</v>
       </c>
       <c r="L326">
         <v>6.375837320913386</v>
@@ -15251,7 +15251,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K327">
-        <v>-8.789062499658939e-05</v>
+        <v>-8.789062499658939E-05</v>
       </c>
       <c r="L327">
         <v>5.982840652418587</v>
@@ -15295,7 +15295,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K328">
-        <v>6.493568420751217e-05</v>
+        <v>6.493568420751217E-05</v>
       </c>
       <c r="L328">
         <v>5.612971591905395</v>
@@ -15559,7 +15559,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K334">
-        <v>9.402275085790279e-05</v>
+        <v>9.402275085790279E-05</v>
       </c>
       <c r="L334">
         <v>4.025136498314692</v>
@@ -15929,7 +15929,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K342">
-        <v>-2.709388732569096e-05</v>
+        <v>-2.709388732569096E-05</v>
       </c>
       <c r="L342">
         <v>5.017132218208239</v>
@@ -17425,7 +17425,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K376">
-        <v>2.000808715507674e-05</v>
+        <v>2.000808715507674E-05</v>
       </c>
       <c r="L376">
         <v>9.896328334988061</v>
@@ -19637,7 +19637,7 @@
         <v>843248</v>
       </c>
       <c r="I426">
-        <v>6.079673767089844e-05</v>
+        <v>6.079673767089844E-05</v>
       </c>
       <c r="J426">
         <v>0.02000000000000313</v>
@@ -20165,7 +20165,7 @@
         <v>847088</v>
       </c>
       <c r="I438">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J438">
         <v>0.01999999999999602</v>
@@ -20913,7 +20913,7 @@
         <v>855408</v>
       </c>
       <c r="I455">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J455">
         <v>0.1600000000000037</v>
@@ -20957,7 +20957,7 @@
         <v>857968</v>
       </c>
       <c r="I456">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J456">
         <v>0.1599999999999966</v>
@@ -21001,7 +21001,7 @@
         <v>860528</v>
       </c>
       <c r="I457">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J457">
         <v>0.1600000000000037</v>
@@ -21139,7 +21139,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K460">
-        <v>-5.689620971338627e-05</v>
+        <v>-5.689620971338627E-05</v>
       </c>
       <c r="L460">
         <v>58.6811275578608</v>
@@ -21465,7 +21465,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K467">
-        <v>3.489494323360987e-05</v>
+        <v>3.489494323360987E-05</v>
       </c>
       <c r="L467">
         <v>41.45909128450546</v>
@@ -21509,7 +21509,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K468">
-        <v>-8.884429931299564e-05</v>
+        <v>-8.884429931299564E-05</v>
       </c>
       <c r="L468">
         <v>38.87345084793094</v>
@@ -21553,7 +21553,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K469">
-        <v>-2.614021301639013e-05</v>
+        <v>-2.614021301639013E-05</v>
       </c>
       <c r="L469">
         <v>36.44549393324878</v>
@@ -21597,7 +21597,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K470">
-        <v>4.13894653661373e-06</v>
+        <v>4.13894653661373E-06</v>
       </c>
       <c r="L470">
         <v>34.16790924657927</v>
@@ -21879,7 +21879,7 @@
         <v>0.1600000000000037</v>
       </c>
       <c r="K476">
-        <v>4.85420226681299e-06</v>
+        <v>4.85420226681299E-06</v>
       </c>
       <c r="L476">
         <v>27.82900262472458</v>
@@ -22005,7 +22005,7 @@
         <v>916848</v>
       </c>
       <c r="I479">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J479">
         <v>0.1599999999999966</v>
@@ -22093,7 +22093,7 @@
         <v>921968</v>
       </c>
       <c r="I481">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J481">
         <v>0.1599999999999966</v>
@@ -22847,7 +22847,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K498">
-        <v>-1.098632812812639e-05</v>
+        <v>-1.098632812812639E-05</v>
       </c>
       <c r="L498">
         <v>38.58010044126935</v>
@@ -23683,7 +23683,7 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="K517">
-        <v>2.000808716218216e-05</v>
+        <v>2.000808716218216E-05</v>
       </c>
       <c r="L517">
         <v>15.2488523496601</v>
@@ -24123,7 +24123,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K527">
-        <v>2.000808715507674e-05</v>
+        <v>2.000808715507674E-05</v>
       </c>
       <c r="L527">
         <v>11.96398587919315</v>
@@ -25241,7 +25241,7 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="K552">
-        <v>-1.098632812102096e-05</v>
+        <v>-1.098632812102096E-05</v>
       </c>
       <c r="L552">
         <v>7.871536912908865</v>
@@ -25285,7 +25285,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K553">
-        <v>-1.098632812812639e-05</v>
+        <v>-1.098632812812639E-05</v>
       </c>
       <c r="L553">
         <v>7.380252501360069</v>
@@ -25461,7 +25461,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K557">
-        <v>1.905441283867049e-05</v>
+        <v>1.905441283867049E-05</v>
       </c>
       <c r="L557">
         <v>6.525003736934318</v>
@@ -25901,7 +25901,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K567">
-        <v>3.298759460790279e-05</v>
+        <v>3.298759460790279E-05</v>
       </c>
       <c r="L567">
         <v>11.07980979218446</v>
@@ -26555,7 +26555,7 @@
         <v>985008</v>
       </c>
       <c r="I582">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J582">
         <v>0.02000000000000313</v>
@@ -27371,7 +27371,7 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="K600">
-        <v>-1.098632812812639e-05</v>
+        <v>-1.098632812812639E-05</v>
       </c>
       <c r="L600">
         <v>10.72657466914586</v>
@@ -27855,7 +27855,7 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="K611">
-        <v>-2.202987673172174e-06</v>
+        <v>-2.202987673172174E-06</v>
       </c>
       <c r="L611">
         <v>9.025352150760215</v>
@@ -27987,7 +27987,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K614">
-        <v>-8.717536925928471e-05</v>
+        <v>-8.717536925928471E-05</v>
       </c>
       <c r="L614">
         <v>10.26822060854577</v>
@@ -28163,7 +28163,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K618">
-        <v>-8.693695068018314e-05</v>
+        <v>-8.693695068018314E-05</v>
       </c>
       <c r="L618">
         <v>9.693717528852218</v>
@@ -28251,7 +28251,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K620">
-        <v>3.513336181981686e-05</v>
+        <v>3.513336181981686E-05</v>
       </c>
       <c r="L620">
         <v>8.533022139575671</v>
@@ -28577,7 +28577,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K627">
-        <v>-5.594253539698002e-05</v>
+        <v>-5.594253539698002E-05</v>
       </c>
       <c r="L627">
         <v>8.148026141333071</v>
@@ -28885,7 +28885,7 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="K634">
-        <v>-2.590179443018314e-05</v>
+        <v>-2.590179443018314E-05</v>
       </c>
       <c r="L634">
         <v>7.213453168063692</v>
@@ -29557,7 +29557,7 @@
         <v>1079728</v>
       </c>
       <c r="I649">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J649">
         <v>0.02000000000001023</v>
@@ -29783,7 +29783,7 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="K654">
-        <v>-1.217842101652877e-05</v>
+        <v>-1.217842101652877E-05</v>
       </c>
       <c r="L654">
         <v>7.501543066405231</v>
@@ -31779,13 +31779,13 @@
         <v>2087481152</v>
       </c>
       <c r="I32">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L32">
         <v>110.4696130337849</v>
@@ -31867,13 +31867,13 @@
         <v>2087487272</v>
       </c>
       <c r="I34">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L34">
         <v>100.9124624923046</v>
@@ -33979,13 +33979,13 @@
         <v>2087524802</v>
       </c>
       <c r="I82">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="L82">
         <v>205.926263456902</v>
@@ -37253,13 +37253,13 @@
         <v>2087612282</v>
       </c>
       <c r="I156">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L156">
         <v>31.74489854812695</v>
@@ -37297,7 +37297,7 @@
         <v>2087618402</v>
       </c>
       <c r="I157">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J157">
         <v>0.06799999999930151</v>
@@ -37341,7 +37341,7 @@
         <v>2087624882</v>
       </c>
       <c r="I158">
-        <v>9.202957153320312e-05</v>
+        <v>9.202957153320312E-05</v>
       </c>
       <c r="J158">
         <v>0.07200000000011642</v>
@@ -37385,13 +37385,13 @@
         <v>2087624882</v>
       </c>
       <c r="I159">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L159">
         <v>34.10428397528992</v>
@@ -37517,13 +37517,13 @@
         <v>2087630912</v>
       </c>
       <c r="I162">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L162">
         <v>32.28573375365088</v>
@@ -37561,7 +37561,7 @@
         <v>2087637122</v>
       </c>
       <c r="I163">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J163">
         <v>0.06899999999950523</v>
@@ -37649,13 +37649,13 @@
         <v>2087637122</v>
       </c>
       <c r="I165">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L165">
         <v>30.39314263802104</v>
@@ -37693,7 +37693,7 @@
         <v>2087643422</v>
       </c>
       <c r="I166">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J166">
         <v>0.06999999999970896</v>
@@ -37737,13 +37737,13 @@
         <v>2087643422</v>
       </c>
       <c r="I167">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L167">
         <v>30.81440659361583</v>
@@ -37781,13 +37781,13 @@
         <v>2087643422</v>
       </c>
       <c r="I168">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L168">
         <v>28.89044333247004</v>
@@ -37825,13 +37825,13 @@
         <v>2087643422</v>
       </c>
       <c r="I169">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L169">
         <v>27.08672777514586</v>
@@ -37957,13 +37957,13 @@
         <v>2087649542</v>
       </c>
       <c r="I172">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L172">
         <v>26.07507585532055</v>
@@ -38177,13 +38177,13 @@
         <v>2087662232</v>
       </c>
       <c r="I177">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L177">
         <v>26.17139064161334</v>
@@ -38309,13 +38309,13 @@
         <v>2087668082</v>
       </c>
       <c r="I180">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L180">
         <v>32.48245045134907</v>
@@ -42077,13 +42077,13 @@
         <v>2088191702</v>
       </c>
       <c r="I264">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J264">
         <v>0</v>
       </c>
       <c r="K264">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L264">
         <v>472.9585504340529</v>
@@ -43459,7 +43459,7 @@
         <v>2088366212</v>
       </c>
       <c r="I295">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J295">
         <v>0.06799999999930151</v>
@@ -44207,7 +44207,7 @@
         <v>2088459812</v>
       </c>
       <c r="I312">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J312">
         <v>0.06999999999970896</v>
@@ -44841,7 +44841,7 @@
         <v>2088553232</v>
       </c>
       <c r="I326">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J326">
         <v>0.06899999999950523</v>
@@ -48697,7 +48697,7 @@
         <v>2089588052</v>
       </c>
       <c r="I412">
-        <v>9.202957153320312e-05</v>
+        <v>9.202957153320312E-05</v>
       </c>
       <c r="J412">
         <v>0.1399999999994179</v>
@@ -49357,7 +49357,7 @@
         <v>2089681562</v>
       </c>
       <c r="I427">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J427">
         <v>0.06999999999970896</v>
@@ -51197,7 +51197,7 @@
         <v>2089905932</v>
       </c>
       <c r="I468">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J468">
         <v>0.06999999999970896</v>
@@ -51593,7 +51593,7 @@
         <v>2089943282</v>
       </c>
       <c r="I477">
-        <v>3.123283386230469e-05</v>
+        <v>3.123283386230469E-05</v>
       </c>
       <c r="J477">
         <v>0.06899999999950523</v>
@@ -53195,7 +53195,7 @@
         <v>2090173862</v>
       </c>
       <c r="I513">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J513">
         <v>0.205999999998312</v>
@@ -53421,7 +53421,7 @@
         <v>0.06999999999970896</v>
       </c>
       <c r="K518">
-        <v>8.039474778342992e-06</v>
+        <v>8.039474778342992E-06</v>
       </c>
       <c r="L518">
         <v>50.02007254807002</v>
@@ -55061,7 +55061,7 @@
         <v>2090491832</v>
       </c>
       <c r="I555">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J555">
         <v>0.06899999999950523</v>
@@ -55959,7 +55959,7 @@
         <v>2090622782</v>
       </c>
       <c r="I575">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J575">
         <v>0.06999999999970896</v>
@@ -56355,7 +56355,7 @@
         <v>2090684972</v>
       </c>
       <c r="I584">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J584">
         <v>0.06899999999950523</v>
@@ -56531,7 +56531,7 @@
         <v>2090716202</v>
       </c>
       <c r="I588">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J588">
         <v>0.07099999999991269</v>
@@ -59119,13 +59119,13 @@
         <v>2091071612</v>
       </c>
       <c r="I646">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J646">
         <v>0</v>
       </c>
       <c r="K646">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="L646">
         <v>34.86257389909196</v>
@@ -60243,7 +60243,7 @@
         <v>0.06799999999930151</v>
       </c>
       <c r="K671">
-        <v>-6.120681064203382e-06</v>
+        <v>-6.120681064203382E-06</v>
       </c>
       <c r="L671">
         <v>29.45966822948882</v>
@@ -60589,7 +60589,7 @@
         <v>2091258452</v>
       </c>
       <c r="I679">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J679">
         <v>0.06999999999970896</v>
@@ -61029,7 +61029,7 @@
         <v>2091295892</v>
       </c>
       <c r="I689">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J689">
         <v>0.06899999999950523</v>
@@ -61751,7 +61751,7 @@
         <v>2091389222</v>
       </c>
       <c r="I705">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J705">
         <v>0.06799999999930151</v>
@@ -62411,7 +62411,7 @@
         <v>2091482912</v>
       </c>
       <c r="I720">
-        <v>6.103515625e-05</v>
+        <v>6.103515625E-05</v>
       </c>
       <c r="J720">
         <v>0.06999999999970896</v>
@@ -64339,7 +64339,7 @@
         <v>2091750842</v>
       </c>
       <c r="I763">
-        <v>3.099441528320312e-05</v>
+        <v>3.099441528320312E-05</v>
       </c>
       <c r="J763">
         <v>0.1379999999990105</v>
